--- a/biology/Zoologie/Dibamus/Dibamus.xlsx
+++ b/biology/Zoologie/Dibamus/Dibamus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dibamus est un genre de sauriens de la famille des Dibamidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dibamus est un genre de sauriens de la famille des Dibamidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans les forêts tropicales humides et sèches en Asie du Sud-Est, dans le sud de l'Asie de l'Est et en Nouvelle-Guinée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans les forêts tropicales humides et sèches en Asie du Sud-Est, dans le sud de l'Asie de l'Est et en Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces lézards serpentiformes avec des petites écailles brillantes étroitement imbriquées sont capables de se séparer de leur queue en cas de menace.
-Ces squamates mènent une vie de fouisseur et sont rarement observés en surface. Ils sont ovipares et donnent un seul œuf par ponte. Ils se nourrissent de larves d'insectes, d'insectes et d’arthropodes et peut-être aussi de vers de terre[2].
+Ces squamates mènent une vie de fouisseur et sont rarement observés en surface. Ils sont ovipares et donnent un seul œuf par ponte. Ils se nourrissent de larves d'insectes, d'insectes et d’arthropodes et peut-être aussi de vers de terre.
 Ces reptiles atteignent une vingtaine de centimètres pour les plus grands. Les femelles ne possèdent pas de pattes et les mâles présentent des vestiges atrophiés.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (08 mars 2024)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (08 mars 2024) :
 Dibamus alfredi Taylor, 1962
 Dibamus bogadeki Darevsky, 1992
 Dibamus booliati Das &amp; Yaakob, 2003
@@ -585,14 +603,14 @@
 Dibamus celebensis Schlegel, 1858
 Dibamus dalaiensis Neang et al., 2011
 Dibamus deharvengi Ineich, 1999
-Dibamus deimontis Kliukin et al., 2024[4]
+Dibamus deimontis Kliukin et al., 2024
 Dibamus dezwaani Das &amp; Lim, 2005
 Dibamus floweri Quah et al., 2017
 Dibamus greeri Darevsky, 1992
 Dibamus ingeri Das &amp; Lim, 2003
 Dibamus kondaoensis Honda et al., 2001
 Dibamus leucurus (Bleeker, 1860)
-Dibamus manadotuaensis Koppetsch et al., 2019[5]
+Dibamus manadotuaensis Koppetsch et al., 2019
 Dibamus montanus Smith, 1921
 Dibamus nicobaricum (Steindachner, 1867)
 Dibamus novaeguineae Duméril &amp; Bibron, 1839
@@ -602,7 +620,7 @@
 Dibamus taylori Greer, 1985
 Dibamus tebal Das &amp; Lim, 2009
 Dibamus tiomanensis Diaz et al., 2004
-Dibamus tropcentr Kliukin et al., 2023[6]
+Dibamus tropcentr Kliukin et al., 2023
 Dibamus vorisi Das &amp; Lim, 2003</t>
         </is>
       </c>
@@ -631,7 +649,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1839 : Erpétologie Générale ou Histoire Naturelle Complète des Reptiles. vol. 5, Roret/Fain et Thunot, Paris, p. 1-871 (texte intégral).</t>
         </is>
